--- a/pico-synth-sound/control_stream_format.xlsx
+++ b/pico-synth-sound/control_stream_format.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6113d96ddfeabfd/22_Development/34_pico_synth/pico-synth-sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="572" documentId="11_AD4D066CA252ABDACC10482671D4FCC273EEDF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00EB633E-2016-4735-B032-E29478D7D8DC}"/>
+  <xr:revisionPtr revIDLastSave="823" documentId="11_AD4D066CA252ABDACC10482671D4FCC273EEDF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA9DCEFC-9CE7-454F-B1C3-4A1515A22423}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9135" yWindow="0" windowWidth="19770" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,19 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
-  <si>
-    <t>lfo_wavetype 3bit</t>
-  </si>
-  <si>
-    <t>lfo_target 3bit</t>
-  </si>
-  <si>
-    <t>lfo_speed 10bit</t>
-  </si>
-  <si>
-    <t>lfo_depth 10bit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
   <si>
     <t>velocity</t>
     <phoneticPr fontId="1"/>
@@ -217,6 +206,82 @@
     <t>53bytes</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>tune2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ch9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wave1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wave2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lfo_wave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lfo_target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switches</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -395,6 +460,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -410,6 +484,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,256 +753,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO53"/>
+  <dimension ref="A1:BM36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1"/>
-    <col min="4" max="123" width="3.375" style="1" customWidth="1"/>
-    <col min="124" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="121" width="3.375" style="1" customWidth="1"/>
+    <col min="122" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:67">
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="3:67">
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <f>D3+1</f>
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <f t="shared" ref="T3" si="0">L3+1</f>
-        <v>2</v>
-      </c>
-      <c r="AB3" s="1">
-        <f t="shared" ref="AB3" si="1">T3+1</f>
-        <v>3</v>
-      </c>
-      <c r="AJ3" s="1">
-        <f t="shared" ref="AJ3" si="2">AB3+1</f>
-        <v>4</v>
-      </c>
-      <c r="AR3" s="1">
-        <f t="shared" ref="AR3" si="3">AJ3+1</f>
-        <v>5</v>
-      </c>
-      <c r="AZ3" s="1">
-        <f t="shared" ref="AZ3" si="4">AR3+1</f>
-        <v>6</v>
-      </c>
-      <c r="BH3" s="1">
-        <f t="shared" ref="BH3" si="5">AZ3+1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="3:67">
+    <row r="1" spans="1:65">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f>B3+1</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3" si="0">J3+1</f>
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3" si="1">R3+1</f>
+        <v>3</v>
+      </c>
+      <c r="AH3" s="1">
+        <f t="shared" ref="AH3" si="2">Z3+1</f>
+        <v>4</v>
+      </c>
+      <c r="AP3" s="1">
+        <f t="shared" ref="AP3" si="3">AH3+1</f>
+        <v>5</v>
+      </c>
+      <c r="AX3" s="1">
+        <f t="shared" ref="AX3" si="4">AP3+1</f>
+        <v>6</v>
+      </c>
+      <c r="BF3" s="1">
+        <f t="shared" ref="BF3" si="5">AX3+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65">
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:67">
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -937,12 +1016,12 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -955,12 +1034,12 @@
       <c r="AD5" s="6"/>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
@@ -973,12 +1052,12 @@
       <c r="AT5" s="6"/>
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6"/>
       <c r="BC5" s="6"/>
@@ -991,340 +1070,340 @@
       <c r="BJ5" s="6"/>
       <c r="BK5" s="6"/>
       <c r="BL5" s="6"/>
-      <c r="BM5" s="6"/>
-      <c r="BN5" s="6"/>
-      <c r="BO5" s="7"/>
-    </row>
-    <row r="6" spans="3:67">
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="BM5" s="7"/>
+    </row>
+    <row r="6" spans="1:65">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK6" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
       <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS6" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
       <c r="AU6" s="10"/>
       <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA6" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
       <c r="BB6" s="10"/>
       <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI6" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
       <c r="BJ6" s="10"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="11"/>
-    </row>
-    <row r="8" spans="3:67">
-      <c r="D8" s="1">
-        <f>D3+8</f>
+      <c r="BM6" s="11"/>
+    </row>
+    <row r="8" spans="1:65">
+      <c r="B8" s="1">
+        <f>B3+8</f>
         <v>8</v>
       </c>
-      <c r="L8" s="1">
-        <f>D8+1</f>
+      <c r="J8" s="1">
+        <f>B8+1</f>
         <v>9</v>
       </c>
-      <c r="T8" s="1">
-        <f t="shared" ref="T8" si="6">L8+1</f>
+      <c r="R8" s="1">
+        <f t="shared" ref="R8" si="6">J8+1</f>
         <v>10</v>
       </c>
-      <c r="AB8" s="1">
-        <f t="shared" ref="AB8" si="7">T8+1</f>
+      <c r="Z8" s="1">
+        <f t="shared" ref="Z8" si="7">R8+1</f>
         <v>11</v>
       </c>
-      <c r="AJ8" s="1">
-        <f t="shared" ref="AJ8" si="8">AB8+1</f>
+      <c r="AH8" s="1">
+        <f t="shared" ref="AH8" si="8">Z8+1</f>
         <v>12</v>
       </c>
-      <c r="AR8" s="1">
-        <f t="shared" ref="AR8" si="9">AJ8+1</f>
+      <c r="AP8" s="1">
+        <f t="shared" ref="AP8" si="9">AH8+1</f>
         <v>13</v>
       </c>
-      <c r="AZ8" s="1">
-        <f t="shared" ref="AZ8" si="10">AR8+1</f>
+      <c r="AX8" s="1">
+        <f t="shared" ref="AX8" si="10">AP8+1</f>
         <v>14</v>
       </c>
-      <c r="BH8" s="1">
-        <f t="shared" ref="BH8" si="11">AZ8+1</f>
+      <c r="BF8" s="1">
+        <f t="shared" ref="BF8" si="11">AX8+1</f>
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:67">
+    <row r="9" spans="1:65">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
       <c r="D9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM9" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:67">
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1337,12 +1416,12 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -1355,12 +1434,12 @@
       <c r="AD10" s="6"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
@@ -1373,12 +1452,12 @@
       <c r="AT10" s="6"/>
       <c r="AU10" s="6"/>
       <c r="AV10" s="6"/>
-      <c r="AW10" s="6"/>
-      <c r="AX10" s="6"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6"/>
       <c r="BC10" s="6"/>
@@ -1391,340 +1470,340 @@
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="6"/>
-      <c r="BM10" s="6"/>
-      <c r="BN10" s="6"/>
-      <c r="BO10" s="7"/>
-    </row>
-    <row r="11" spans="3:67">
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="BM10" s="7"/>
+    </row>
+    <row r="11" spans="1:65">
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC11" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK11" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="11"/>
-      <c r="AR11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS11" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
       <c r="AT11" s="10"/>
       <c r="AU11" s="10"/>
       <c r="AV11" s="10"/>
-      <c r="AW11" s="10"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA11" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
       <c r="BB11" s="10"/>
       <c r="BC11" s="10"/>
       <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
-      <c r="BG11" s="11"/>
-      <c r="BH11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI11" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10"/>
       <c r="BJ11" s="10"/>
       <c r="BK11" s="10"/>
       <c r="BL11" s="10"/>
-      <c r="BM11" s="10"/>
-      <c r="BN11" s="10"/>
-      <c r="BO11" s="11"/>
-    </row>
-    <row r="13" spans="3:67">
-      <c r="D13" s="1">
-        <f>D8+8</f>
+      <c r="BM11" s="11"/>
+    </row>
+    <row r="13" spans="1:65">
+      <c r="B13" s="1">
+        <f>B8+8</f>
         <v>16</v>
       </c>
-      <c r="L13" s="1">
-        <f>D13+1</f>
+      <c r="J13" s="1">
+        <f>B13+1</f>
         <v>17</v>
       </c>
-      <c r="T13" s="1">
-        <f t="shared" ref="T13" si="12">L13+1</f>
+      <c r="R13" s="1">
+        <f t="shared" ref="R13" si="12">J13+1</f>
         <v>18</v>
       </c>
-      <c r="AB13" s="1">
-        <f t="shared" ref="AB13" si="13">T13+1</f>
+      <c r="Z13" s="1">
+        <f t="shared" ref="Z13" si="13">R13+1</f>
         <v>19</v>
       </c>
-      <c r="AJ13" s="1">
-        <f t="shared" ref="AJ13" si="14">AB13+1</f>
+      <c r="AH13" s="1">
+        <f t="shared" ref="AH13" si="14">Z13+1</f>
         <v>20</v>
       </c>
-      <c r="AR13" s="1">
-        <f t="shared" ref="AR13" si="15">AJ13+1</f>
+      <c r="AP13" s="1">
+        <f t="shared" ref="AP13" si="15">AH13+1</f>
         <v>21</v>
       </c>
-      <c r="AZ13" s="1">
-        <f t="shared" ref="AZ13" si="16">AR13+1</f>
+      <c r="AX13" s="1">
+        <f t="shared" ref="AX13" si="16">AP13+1</f>
         <v>22</v>
       </c>
-      <c r="BH13" s="1">
-        <f t="shared" ref="BH13" si="17">AZ13+1</f>
+      <c r="BF13" s="1">
+        <f t="shared" ref="BF13" si="17">AX13+1</f>
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="3:67">
+    <row r="14" spans="1:65">
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
       <c r="D14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG14" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH14" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI14" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:67">
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1737,12 +1816,12 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -1755,12 +1834,12 @@
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
@@ -1773,12 +1852,12 @@
       <c r="AT15" s="6"/>
       <c r="AU15" s="6"/>
       <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="7"/>
-      <c r="AZ15" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
       <c r="BA15" s="6"/>
       <c r="BB15" s="6"/>
       <c r="BC15" s="6"/>
@@ -1791,358 +1870,358 @@
       <c r="BJ15" s="6"/>
       <c r="BK15" s="6"/>
       <c r="BL15" s="6"/>
-      <c r="BM15" s="6"/>
-      <c r="BN15" s="6"/>
-      <c r="BO15" s="7"/>
-    </row>
-    <row r="16" spans="3:67">
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="BM15" s="7"/>
+    </row>
+    <row r="16" spans="1:65">
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC16" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
       <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK16" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
       <c r="AL16" s="10"/>
       <c r="AM16" s="10"/>
       <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS16" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
-      <c r="AW16" s="10"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA16" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
       <c r="BB16" s="10"/>
       <c r="BC16" s="10"/>
       <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
-      <c r="BG16" s="11"/>
-      <c r="BH16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI16" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
       <c r="BJ16" s="10"/>
       <c r="BK16" s="10"/>
       <c r="BL16" s="10"/>
-      <c r="BM16" s="10"/>
-      <c r="BN16" s="10"/>
-      <c r="BO16" s="11"/>
-    </row>
-    <row r="18" spans="4:67">
-      <c r="D18" s="1">
-        <f>D13+8</f>
+      <c r="BM16" s="11"/>
+    </row>
+    <row r="18" spans="2:65">
+      <c r="B18" s="1">
+        <f>B13+8</f>
         <v>24</v>
       </c>
-      <c r="L18" s="1">
-        <f>D18+1</f>
+      <c r="J18" s="1">
+        <f>B18+1</f>
         <v>25</v>
       </c>
-      <c r="T18" s="1">
-        <f t="shared" ref="T18" si="18">L18+1</f>
+      <c r="R18" s="1">
+        <f t="shared" ref="R18" si="18">J18+1</f>
         <v>26</v>
       </c>
-      <c r="AB18" s="1">
-        <f t="shared" ref="AB18" si="19">T18+1</f>
+      <c r="Z18" s="1">
+        <f t="shared" ref="Z18" si="19">R18+1</f>
         <v>27</v>
       </c>
-      <c r="AJ18" s="1">
-        <f t="shared" ref="AJ18" si="20">AB18+1</f>
+      <c r="AH18" s="1">
+        <f t="shared" ref="AH18" si="20">Z18+1</f>
         <v>28</v>
       </c>
-      <c r="AR18" s="1">
-        <f t="shared" ref="AR18" si="21">AJ18+1</f>
+      <c r="AP18" s="1">
+        <f t="shared" ref="AP18" si="21">AH18+1</f>
         <v>29</v>
       </c>
-      <c r="AZ18" s="1">
-        <f t="shared" ref="AZ18" si="22">AR18+1</f>
+      <c r="AX18" s="1">
+        <f t="shared" ref="AX18" si="22">AP18+1</f>
         <v>30</v>
       </c>
-      <c r="BH18" s="1">
-        <f t="shared" ref="BH18" si="23">AZ18+1</f>
+      <c r="BF18" s="1">
+        <f t="shared" ref="BF18" si="23">AX18+1</f>
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="4:67">
+    <row r="19" spans="2:65">
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
       <c r="D19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG19" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH19" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM19" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN19" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:67">
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:65">
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -2155,12 +2234,12 @@
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
       <c r="AM20" s="6"/>
@@ -2173,12 +2252,12 @@
       <c r="AT20" s="6"/>
       <c r="AU20" s="6"/>
       <c r="AV20" s="6"/>
-      <c r="AW20" s="6"/>
-      <c r="AX20" s="6"/>
-      <c r="AY20" s="7"/>
-      <c r="AZ20" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
       <c r="BA20" s="6"/>
       <c r="BB20" s="6"/>
       <c r="BC20" s="6"/>
@@ -2191,343 +2270,343 @@
       <c r="BJ20" s="6"/>
       <c r="BK20" s="6"/>
       <c r="BL20" s="6"/>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
-      <c r="BO20" s="7"/>
-    </row>
-    <row r="21" spans="4:67">
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="BM20" s="7"/>
+    </row>
+    <row r="21" spans="2:65">
+      <c r="B21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC21" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK21" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
       <c r="AM21" s="10"/>
       <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="11"/>
-      <c r="AR21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS21" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
       <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="11"/>
-      <c r="AZ21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="BA21" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
       <c r="BB21" s="10"/>
       <c r="BC21" s="10"/>
       <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
-      <c r="BF21" s="10"/>
-      <c r="BG21" s="11"/>
-      <c r="BH21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI21" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="BE21" s="11"/>
+      <c r="BF21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
       <c r="BJ21" s="10"/>
       <c r="BK21" s="10"/>
       <c r="BL21" s="10"/>
-      <c r="BM21" s="10"/>
-      <c r="BN21" s="10"/>
-      <c r="BO21" s="11"/>
-    </row>
-    <row r="23" spans="4:67">
-      <c r="D23" s="1">
-        <f>D18+8</f>
+      <c r="BM21" s="11"/>
+    </row>
+    <row r="23" spans="2:65">
+      <c r="B23" s="1">
+        <f>B18+8</f>
         <v>32</v>
       </c>
-      <c r="L23" s="1">
-        <f>D23+1</f>
+      <c r="J23" s="1">
+        <f>B23+1</f>
         <v>33</v>
       </c>
-      <c r="T23" s="1">
-        <f t="shared" ref="T23" si="24">L23+1</f>
+      <c r="R23" s="1">
+        <f t="shared" ref="R23" si="24">J23+1</f>
         <v>34</v>
       </c>
-      <c r="AB23" s="1">
-        <f t="shared" ref="AB23" si="25">T23+1</f>
+      <c r="Z23" s="1">
+        <f t="shared" ref="Z23" si="25">R23+1</f>
         <v>35</v>
       </c>
-      <c r="AJ23" s="1">
-        <f t="shared" ref="AJ23" si="26">AB23+1</f>
+      <c r="AH23" s="1">
+        <f t="shared" ref="AH23" si="26">Z23+1</f>
         <v>36</v>
       </c>
-      <c r="AR23" s="1">
-        <f t="shared" ref="AR23" si="27">AJ23+1</f>
+      <c r="AP23" s="1">
+        <f t="shared" ref="AP23" si="27">AH23+1</f>
         <v>37</v>
       </c>
-      <c r="AZ23" s="1">
-        <f t="shared" ref="AZ23" si="28">AR23+1</f>
+      <c r="AX23" s="1">
+        <f t="shared" ref="AX23" si="28">AP23+1</f>
         <v>38</v>
       </c>
-      <c r="BH23" s="1">
-        <f t="shared" ref="BH23" si="29">AZ23+1</f>
+      <c r="BF23" s="1">
+        <f t="shared" ref="BF23" si="29">AX23+1</f>
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="4:67">
+    <row r="24" spans="2:65">
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
       <c r="D24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG24" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI24" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM24" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN24" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:67">
-      <c r="D25" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:65">
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -2555,12 +2634,12 @@
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
-      <c r="AI25" s="6"/>
-      <c r="AJ25" s="6"/>
-      <c r="AK25" s="7"/>
-      <c r="AL25" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
@@ -2587,322 +2666,322 @@
       <c r="BJ25" s="6"/>
       <c r="BK25" s="6"/>
       <c r="BL25" s="6"/>
-      <c r="BM25" s="6"/>
-      <c r="BN25" s="6"/>
-      <c r="BO25" s="7"/>
-    </row>
-    <row r="26" spans="4:67">
+      <c r="BM25" s="7"/>
+    </row>
+    <row r="26" spans="2:65">
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
-      <c r="AI26" s="6"/>
-      <c r="AJ26" s="6"/>
-      <c r="AK26" s="7"/>
-      <c r="AL26" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
       <c r="AO26" s="6"/>
       <c r="AP26" s="6"/>
       <c r="AQ26" s="6"/>
       <c r="AR26" s="6"/>
-      <c r="AS26" s="6"/>
-      <c r="AT26" s="6"/>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6"/>
       <c r="AY26" s="6"/>
       <c r="AZ26" s="6"/>
       <c r="BA26" s="6"/>
       <c r="BB26" s="6"/>
-      <c r="BC26" s="6"/>
-      <c r="BD26" s="6"/>
-      <c r="BE26" s="7"/>
-      <c r="BF26" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="BE26" s="6"/>
+      <c r="BF26" s="6"/>
       <c r="BG26" s="6"/>
       <c r="BH26" s="6"/>
       <c r="BI26" s="6"/>
       <c r="BJ26" s="6"/>
       <c r="BK26" s="6"/>
       <c r="BL26" s="6"/>
-      <c r="BM26" s="6"/>
-      <c r="BN26" s="6"/>
-      <c r="BO26" s="7"/>
-    </row>
-    <row r="28" spans="4:67">
-      <c r="D28" s="1">
-        <f>D23+8</f>
+      <c r="BM26" s="7"/>
+    </row>
+    <row r="28" spans="2:65">
+      <c r="B28" s="1">
+        <f>B23+8</f>
         <v>40</v>
       </c>
-      <c r="L28" s="1">
-        <f>D28+1</f>
+      <c r="J28" s="1">
+        <f>B28+1</f>
         <v>41</v>
       </c>
-      <c r="T28" s="1">
-        <f t="shared" ref="T28" si="30">L28+1</f>
+      <c r="R28" s="1">
+        <f t="shared" ref="R28" si="30">J28+1</f>
         <v>42</v>
       </c>
-      <c r="AB28" s="1">
-        <f t="shared" ref="AB28" si="31">T28+1</f>
+      <c r="Z28" s="1">
+        <f t="shared" ref="Z28" si="31">R28+1</f>
         <v>43</v>
       </c>
-      <c r="AJ28" s="1">
-        <f t="shared" ref="AJ28" si="32">AB28+1</f>
+      <c r="AH28" s="1">
+        <f t="shared" ref="AH28" si="32">Z28+1</f>
         <v>44</v>
       </c>
-      <c r="AR28" s="1">
-        <f t="shared" ref="AR28" si="33">AJ28+1</f>
+      <c r="AP28" s="1">
+        <f t="shared" ref="AP28" si="33">AH28+1</f>
         <v>45</v>
       </c>
-      <c r="AZ28" s="1">
-        <f t="shared" ref="AZ28" si="34">AR28+1</f>
+      <c r="AX28" s="1">
+        <f t="shared" ref="AX28" si="34">AP28+1</f>
         <v>46</v>
       </c>
-      <c r="BH28" s="1">
-        <f t="shared" ref="BH28" si="35">AZ28+1</f>
+      <c r="BF28" s="1">
+        <f t="shared" ref="BF28" si="35">AX28+1</f>
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="4:67">
+    <row r="29" spans="2:65">
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
       <c r="D29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S29" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI29" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ29" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY29" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE29" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG29" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH29" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM29" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN29" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:67">
-      <c r="D30" s="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:65">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2916,8 +2995,8 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -2931,12 +3010,12 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
@@ -2965,328 +3044,328 @@
       <c r="BJ30" s="3"/>
       <c r="BK30" s="3"/>
       <c r="BL30" s="3"/>
-      <c r="BM30" s="3"/>
-      <c r="BN30" s="3"/>
-      <c r="BO30" s="4"/>
-    </row>
-    <row r="31" spans="4:67">
-      <c r="D31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="BM30" s="4"/>
+    </row>
+    <row r="31" spans="2:65">
+      <c r="B31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="M31" s="7"/>
+      <c r="N31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="W31" s="7"/>
+      <c r="X31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
       <c r="AD31" s="6"/>
       <c r="AE31" s="6"/>
       <c r="AF31" s="6"/>
-      <c r="AG31" s="6"/>
-      <c r="AH31" s="6"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL31" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
       <c r="AM31" s="6"/>
       <c r="AN31" s="6"/>
       <c r="AO31" s="6"/>
       <c r="AP31" s="6"/>
       <c r="AQ31" s="6"/>
       <c r="AR31" s="6"/>
-      <c r="AS31" s="6"/>
-      <c r="AT31" s="6"/>
-      <c r="AU31" s="7"/>
-      <c r="AV31" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
       <c r="AY31" s="6"/>
       <c r="AZ31" s="6"/>
       <c r="BA31" s="6"/>
       <c r="BB31" s="6"/>
-      <c r="BC31" s="6"/>
-      <c r="BD31" s="6"/>
-      <c r="BE31" s="7"/>
-      <c r="BF31" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="BC31" s="7"/>
+      <c r="BD31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
       <c r="BG31" s="6"/>
       <c r="BH31" s="6"/>
       <c r="BI31" s="6"/>
       <c r="BJ31" s="6"/>
       <c r="BK31" s="6"/>
       <c r="BL31" s="6"/>
-      <c r="BM31" s="6"/>
-      <c r="BN31" s="6"/>
-      <c r="BO31" s="7"/>
-    </row>
-    <row r="33" spans="4:67">
-      <c r="D33" s="1">
-        <f>D28+8</f>
+      <c r="BM31" s="7"/>
+    </row>
+    <row r="33" spans="2:65">
+      <c r="B33" s="1">
+        <f>B28+8</f>
         <v>48</v>
       </c>
-      <c r="L33" s="1">
-        <f>D33+1</f>
+      <c r="J33" s="1">
+        <f>B33+1</f>
         <v>49</v>
       </c>
-      <c r="T33" s="1">
-        <f t="shared" ref="T33" si="36">L33+1</f>
+      <c r="R33" s="1">
+        <f t="shared" ref="R33" si="36">J33+1</f>
         <v>50</v>
       </c>
-      <c r="AB33" s="1">
-        <f t="shared" ref="AB33" si="37">T33+1</f>
+      <c r="Z33" s="1">
+        <f t="shared" ref="Z33" si="37">R33+1</f>
         <v>51</v>
       </c>
-      <c r="AJ33" s="1">
-        <f t="shared" ref="AJ33" si="38">AB33+1</f>
+      <c r="AH33" s="1">
+        <f t="shared" ref="AH33" si="38">Z33+1</f>
         <v>52</v>
       </c>
-      <c r="AR33" s="1">
-        <f t="shared" ref="AR33" si="39">AJ33+1</f>
+      <c r="AP33" s="1">
+        <f t="shared" ref="AP33" si="39">AH33+1</f>
         <v>53</v>
       </c>
-      <c r="AZ33" s="1">
-        <f t="shared" ref="AZ33" si="40">AR33+1</f>
+      <c r="AX33" s="1">
+        <f t="shared" ref="AX33" si="40">AP33+1</f>
         <v>54</v>
       </c>
-      <c r="BH33" s="1">
-        <f t="shared" ref="BH33" si="41">AZ33+1</f>
+      <c r="BF33" s="1">
+        <f t="shared" ref="BF33" si="41">AX33+1</f>
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="4:67">
+    <row r="34" spans="2:65">
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6</v>
+      </c>
       <c r="D34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AD34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE34" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BG34" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI34" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ34" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BK34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BL34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM34" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN34" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:67">
-      <c r="D35" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:65">
+      <c r="B35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3303,12 +3382,12 @@
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="U35" s="7"/>
+      <c r="V35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
@@ -3333,98 +3412,3867 @@
       <c r="AT35" s="6"/>
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="7"/>
-    </row>
-    <row r="36" spans="4:67">
-      <c r="D36" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="AW35" s="7"/>
+    </row>
+    <row r="36" spans="2:65">
+      <c r="B36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="K36" s="7"/>
+      <c r="L36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z36" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
       <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="7"/>
-      <c r="AJ36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="7"/>
-      <c r="AM36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="7"/>
-      <c r="AP36" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
       <c r="AQ36" s="6"/>
       <c r="AR36" s="6"/>
       <c r="AS36" s="6"/>
       <c r="AT36" s="6"/>
       <c r="AU36" s="6"/>
       <c r="AV36" s="6"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="7"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AW36" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A50C407-7AFF-4130-A105-CC636A921B6A}">
+  <dimension ref="B1:AG84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="R85" sqref="R85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="33" width="3.875" style="14" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33">
+      <c r="B1" s="16">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16">
+        <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+    </row>
+    <row r="2" spans="2:33">
+      <c r="B2" s="12">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12">
+        <v>11</v>
+      </c>
+      <c r="G2" s="12">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12">
+        <v>9</v>
+      </c>
+      <c r="I2" s="12">
+        <v>8</v>
+      </c>
+      <c r="J2" s="12">
+        <v>7</v>
+      </c>
+      <c r="K2" s="12">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12">
+        <v>5</v>
+      </c>
+      <c r="M2" s="12">
+        <v>4</v>
+      </c>
+      <c r="N2" s="12">
+        <v>3</v>
+      </c>
+      <c r="O2" s="12">
+        <v>2</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>15</v>
+      </c>
+      <c r="S2" s="12">
+        <v>14</v>
+      </c>
+      <c r="T2" s="12">
+        <v>13</v>
+      </c>
+      <c r="U2" s="12">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12">
+        <v>11</v>
+      </c>
+      <c r="W2" s="12">
+        <v>10</v>
+      </c>
+      <c r="X2" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33">
+      <c r="B3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+    </row>
+    <row r="4" spans="2:33">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+    </row>
+    <row r="6" spans="2:33">
+      <c r="B6" s="16">
+        <f>R1+1</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16">
+        <f>B6+1</f>
+        <v>3</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+    </row>
+    <row r="7" spans="2:33">
+      <c r="B7" s="12">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12">
+        <v>13</v>
+      </c>
+      <c r="E7" s="12">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12">
+        <v>11</v>
+      </c>
+      <c r="G7" s="12">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12">
+        <v>9</v>
+      </c>
+      <c r="I7" s="12">
+        <v>8</v>
+      </c>
+      <c r="J7" s="12">
+        <v>7</v>
+      </c>
+      <c r="K7" s="12">
+        <v>6</v>
+      </c>
+      <c r="L7" s="12">
+        <v>5</v>
+      </c>
+      <c r="M7" s="12">
+        <v>4</v>
+      </c>
+      <c r="N7" s="12">
+        <v>3</v>
+      </c>
+      <c r="O7" s="12">
+        <v>2</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12">
+        <v>15</v>
+      </c>
+      <c r="S7" s="12">
+        <v>14</v>
+      </c>
+      <c r="T7" s="12">
+        <v>13</v>
+      </c>
+      <c r="U7" s="12">
+        <v>12</v>
+      </c>
+      <c r="V7" s="12">
+        <v>11</v>
+      </c>
+      <c r="W7" s="12">
+        <v>10</v>
+      </c>
+      <c r="X7" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33">
+      <c r="B8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+    </row>
+    <row r="9" spans="2:33">
+      <c r="B9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+    </row>
+    <row r="11" spans="2:33">
+      <c r="B11" s="16">
+        <f>R6+1</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16">
+        <f>B11+1</f>
+        <v>5</v>
+      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+    </row>
+    <row r="12" spans="2:33">
+      <c r="B12" s="12">
+        <v>15</v>
+      </c>
+      <c r="C12" s="12">
+        <v>14</v>
+      </c>
+      <c r="D12" s="12">
+        <v>13</v>
+      </c>
+      <c r="E12" s="12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="12">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="12">
+        <v>9</v>
+      </c>
+      <c r="I12" s="12">
+        <v>8</v>
+      </c>
+      <c r="J12" s="12">
+        <v>7</v>
+      </c>
+      <c r="K12" s="12">
+        <v>6</v>
+      </c>
+      <c r="L12" s="12">
+        <v>5</v>
+      </c>
+      <c r="M12" s="12">
+        <v>4</v>
+      </c>
+      <c r="N12" s="12">
+        <v>3</v>
+      </c>
+      <c r="O12" s="12">
+        <v>2</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>15</v>
+      </c>
+      <c r="S12" s="12">
+        <v>14</v>
+      </c>
+      <c r="T12" s="12">
+        <v>13</v>
+      </c>
+      <c r="U12" s="12">
+        <v>12</v>
+      </c>
+      <c r="V12" s="12">
+        <v>11</v>
+      </c>
+      <c r="W12" s="12">
+        <v>10</v>
+      </c>
+      <c r="X12" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33">
+      <c r="B13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+    </row>
+    <row r="14" spans="2:33">
+      <c r="B14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+    </row>
+    <row r="16" spans="2:33">
+      <c r="B16" s="16">
+        <f>R11+1</f>
+        <v>6</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16">
+        <f>B16+1</f>
+        <v>7</v>
+      </c>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+    </row>
+    <row r="17" spans="2:33">
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12">
+        <v>13</v>
+      </c>
+      <c r="E17" s="12">
+        <v>12</v>
+      </c>
+      <c r="F17" s="12">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12">
+        <v>9</v>
+      </c>
+      <c r="I17" s="12">
+        <v>8</v>
+      </c>
+      <c r="J17" s="12">
+        <v>7</v>
+      </c>
+      <c r="K17" s="12">
+        <v>6</v>
+      </c>
+      <c r="L17" s="12">
+        <v>5</v>
+      </c>
+      <c r="M17" s="12">
+        <v>4</v>
+      </c>
+      <c r="N17" s="12">
+        <v>3</v>
+      </c>
+      <c r="O17" s="12">
+        <v>2</v>
+      </c>
+      <c r="P17" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>15</v>
+      </c>
+      <c r="S17" s="12">
+        <v>14</v>
+      </c>
+      <c r="T17" s="12">
+        <v>13</v>
+      </c>
+      <c r="U17" s="12">
+        <v>12</v>
+      </c>
+      <c r="V17" s="12">
+        <v>11</v>
+      </c>
+      <c r="W17" s="12">
+        <v>10</v>
+      </c>
+      <c r="X17" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33">
+      <c r="B18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+    </row>
+    <row r="19" spans="2:33">
+      <c r="B19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="16"/>
+      <c r="AG19" s="16"/>
+    </row>
+    <row r="21" spans="2:33">
+      <c r="B21" s="16">
+        <f>R16+1</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16">
+        <f>B21+1</f>
+        <v>9</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="16"/>
+      <c r="AG21" s="16"/>
+    </row>
+    <row r="22" spans="2:33">
+      <c r="B22" s="12">
+        <v>15</v>
+      </c>
+      <c r="C22" s="12">
+        <v>14</v>
+      </c>
+      <c r="D22" s="12">
+        <v>13</v>
+      </c>
+      <c r="E22" s="12">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12">
+        <v>11</v>
+      </c>
+      <c r="G22" s="12">
+        <v>10</v>
+      </c>
+      <c r="H22" s="12">
+        <v>9</v>
+      </c>
+      <c r="I22" s="12">
+        <v>8</v>
+      </c>
+      <c r="J22" s="12">
+        <v>7</v>
+      </c>
+      <c r="K22" s="12">
+        <v>6</v>
+      </c>
+      <c r="L22" s="12">
+        <v>5</v>
+      </c>
+      <c r="M22" s="12">
+        <v>4</v>
+      </c>
+      <c r="N22" s="12">
+        <v>3</v>
+      </c>
+      <c r="O22" s="12">
+        <v>2</v>
+      </c>
+      <c r="P22" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>0</v>
+      </c>
+      <c r="R22" s="12">
+        <v>15</v>
+      </c>
+      <c r="S22" s="12">
+        <v>14</v>
+      </c>
+      <c r="T22" s="12">
+        <v>13</v>
+      </c>
+      <c r="U22" s="12">
+        <v>12</v>
+      </c>
+      <c r="V22" s="12">
+        <v>11</v>
+      </c>
+      <c r="W22" s="12">
+        <v>10</v>
+      </c>
+      <c r="X22" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33">
+      <c r="B23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+    </row>
+    <row r="24" spans="2:33">
+      <c r="B24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+    </row>
+    <row r="26" spans="2:33">
+      <c r="B26" s="16">
+        <f>R21+1</f>
+        <v>10</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16">
+        <f>B26+1</f>
+        <v>11</v>
+      </c>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+    </row>
+    <row r="27" spans="2:33">
+      <c r="B27" s="12">
+        <v>15</v>
+      </c>
+      <c r="C27" s="12">
+        <v>14</v>
+      </c>
+      <c r="D27" s="12">
+        <v>13</v>
+      </c>
+      <c r="E27" s="12">
+        <v>12</v>
+      </c>
+      <c r="F27" s="12">
+        <v>11</v>
+      </c>
+      <c r="G27" s="12">
+        <v>10</v>
+      </c>
+      <c r="H27" s="12">
+        <v>9</v>
+      </c>
+      <c r="I27" s="12">
+        <v>8</v>
+      </c>
+      <c r="J27" s="12">
+        <v>7</v>
+      </c>
+      <c r="K27" s="12">
+        <v>6</v>
+      </c>
+      <c r="L27" s="12">
+        <v>5</v>
+      </c>
+      <c r="M27" s="12">
+        <v>4</v>
+      </c>
+      <c r="N27" s="12">
+        <v>3</v>
+      </c>
+      <c r="O27" s="12">
+        <v>2</v>
+      </c>
+      <c r="P27" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>0</v>
+      </c>
+      <c r="R27" s="12">
+        <v>15</v>
+      </c>
+      <c r="S27" s="12">
+        <v>14</v>
+      </c>
+      <c r="T27" s="12">
+        <v>13</v>
+      </c>
+      <c r="U27" s="12">
+        <v>12</v>
+      </c>
+      <c r="V27" s="12">
+        <v>11</v>
+      </c>
+      <c r="W27" s="12">
+        <v>10</v>
+      </c>
+      <c r="X27" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB27" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33">
+      <c r="B28" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+    </row>
+    <row r="29" spans="2:33">
+      <c r="B29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+    </row>
+    <row r="31" spans="2:33">
+      <c r="B31" s="16">
+        <f>R26+1</f>
+        <v>12</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16">
+        <f>B31+1</f>
+        <v>13</v>
+      </c>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+    </row>
+    <row r="32" spans="2:33">
+      <c r="B32" s="12">
+        <v>15</v>
+      </c>
+      <c r="C32" s="12">
+        <v>14</v>
+      </c>
+      <c r="D32" s="12">
+        <v>13</v>
+      </c>
+      <c r="E32" s="12">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12">
+        <v>11</v>
+      </c>
+      <c r="G32" s="12">
+        <v>10</v>
+      </c>
+      <c r="H32" s="12">
+        <v>9</v>
+      </c>
+      <c r="I32" s="12">
+        <v>8</v>
+      </c>
+      <c r="J32" s="12">
+        <v>7</v>
+      </c>
+      <c r="K32" s="12">
+        <v>6</v>
+      </c>
+      <c r="L32" s="12">
+        <v>5</v>
+      </c>
+      <c r="M32" s="12">
+        <v>4</v>
+      </c>
+      <c r="N32" s="12">
+        <v>3</v>
+      </c>
+      <c r="O32" s="12">
+        <v>2</v>
+      </c>
+      <c r="P32" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>0</v>
+      </c>
+      <c r="R32" s="12">
+        <v>15</v>
+      </c>
+      <c r="S32" s="12">
+        <v>14</v>
+      </c>
+      <c r="T32" s="12">
+        <v>13</v>
+      </c>
+      <c r="U32" s="12">
+        <v>12</v>
+      </c>
+      <c r="V32" s="12">
+        <v>11</v>
+      </c>
+      <c r="W32" s="12">
+        <v>10</v>
+      </c>
+      <c r="X32" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA32" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB32" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC32" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE32" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33">
+      <c r="B33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+    </row>
+    <row r="34" spans="2:33">
+      <c r="B34" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+      <c r="AG34" s="16"/>
+    </row>
+    <row r="36" spans="2:33">
+      <c r="B36" s="16">
+        <f>R31+1</f>
+        <v>14</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16">
+        <f>B36+1</f>
+        <v>15</v>
+      </c>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="16"/>
+      <c r="AF36" s="16"/>
+      <c r="AG36" s="16"/>
+    </row>
+    <row r="37" spans="2:33">
+      <c r="B37" s="12">
+        <v>15</v>
+      </c>
+      <c r="C37" s="12">
+        <v>14</v>
+      </c>
+      <c r="D37" s="12">
+        <v>13</v>
+      </c>
+      <c r="E37" s="12">
+        <v>12</v>
+      </c>
+      <c r="F37" s="12">
+        <v>11</v>
+      </c>
+      <c r="G37" s="12">
+        <v>10</v>
+      </c>
+      <c r="H37" s="12">
+        <v>9</v>
+      </c>
+      <c r="I37" s="12">
+        <v>8</v>
+      </c>
+      <c r="J37" s="12">
+        <v>7</v>
+      </c>
+      <c r="K37" s="12">
+        <v>6</v>
+      </c>
+      <c r="L37" s="12">
+        <v>5</v>
+      </c>
+      <c r="M37" s="12">
+        <v>4</v>
+      </c>
+      <c r="N37" s="12">
+        <v>3</v>
+      </c>
+      <c r="O37" s="12">
+        <v>2</v>
+      </c>
+      <c r="P37" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>0</v>
+      </c>
+      <c r="R37" s="12">
+        <v>15</v>
+      </c>
+      <c r="S37" s="12">
+        <v>14</v>
+      </c>
+      <c r="T37" s="12">
+        <v>13</v>
+      </c>
+      <c r="U37" s="12">
+        <v>12</v>
+      </c>
+      <c r="V37" s="12">
+        <v>11</v>
+      </c>
+      <c r="W37" s="12">
+        <v>10</v>
+      </c>
+      <c r="X37" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB37" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC37" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD37" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE37" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33">
+      <c r="B38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16"/>
+      <c r="AE38" s="16"/>
+      <c r="AF38" s="16"/>
+      <c r="AG38" s="16"/>
+    </row>
+    <row r="39" spans="2:33">
+      <c r="B39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S39" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+    </row>
+    <row r="41" spans="2:33">
+      <c r="B41" s="16">
+        <f>R36+1</f>
+        <v>16</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16">
+        <f>B41+1</f>
+        <v>17</v>
+      </c>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+    </row>
+    <row r="42" spans="2:33">
+      <c r="B42" s="12">
+        <v>15</v>
+      </c>
+      <c r="C42" s="12">
+        <v>14</v>
+      </c>
+      <c r="D42" s="12">
+        <v>13</v>
+      </c>
+      <c r="E42" s="12">
+        <v>12</v>
+      </c>
+      <c r="F42" s="12">
+        <v>11</v>
+      </c>
+      <c r="G42" s="12">
+        <v>10</v>
+      </c>
+      <c r="H42" s="12">
+        <v>9</v>
+      </c>
+      <c r="I42" s="12">
+        <v>8</v>
+      </c>
+      <c r="J42" s="12">
+        <v>7</v>
+      </c>
+      <c r="K42" s="12">
+        <v>6</v>
+      </c>
+      <c r="L42" s="12">
+        <v>5</v>
+      </c>
+      <c r="M42" s="12">
+        <v>4</v>
+      </c>
+      <c r="N42" s="12">
+        <v>3</v>
+      </c>
+      <c r="O42" s="12">
+        <v>2</v>
+      </c>
+      <c r="P42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>0</v>
+      </c>
+      <c r="R42" s="12">
+        <v>15</v>
+      </c>
+      <c r="S42" s="12">
+        <v>14</v>
+      </c>
+      <c r="T42" s="12">
+        <v>13</v>
+      </c>
+      <c r="U42" s="12">
+        <v>12</v>
+      </c>
+      <c r="V42" s="12">
+        <v>11</v>
+      </c>
+      <c r="W42" s="12">
+        <v>10</v>
+      </c>
+      <c r="X42" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB42" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD42" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE42" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33">
+      <c r="B43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="16"/>
+    </row>
+    <row r="44" spans="2:33">
+      <c r="B44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="12">
+        <v>0</v>
+      </c>
+      <c r="S44" s="12">
+        <v>0</v>
+      </c>
+      <c r="T44" s="12">
+        <v>0</v>
+      </c>
+      <c r="U44" s="12">
+        <v>0</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB44" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+    </row>
+    <row r="46" spans="2:33">
+      <c r="B46" s="16">
+        <f>R41+1</f>
+        <v>18</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16">
+        <f>B46+1</f>
+        <v>19</v>
+      </c>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+    </row>
+    <row r="47" spans="2:33">
+      <c r="B47" s="12">
+        <v>15</v>
+      </c>
+      <c r="C47" s="12">
+        <v>14</v>
+      </c>
+      <c r="D47" s="12">
+        <v>13</v>
+      </c>
+      <c r="E47" s="12">
+        <v>12</v>
+      </c>
+      <c r="F47" s="12">
+        <v>11</v>
+      </c>
+      <c r="G47" s="12">
+        <v>10</v>
+      </c>
+      <c r="H47" s="12">
+        <v>9</v>
+      </c>
+      <c r="I47" s="12">
+        <v>8</v>
+      </c>
+      <c r="J47" s="12">
+        <v>7</v>
+      </c>
+      <c r="K47" s="12">
+        <v>6</v>
+      </c>
+      <c r="L47" s="12">
+        <v>5</v>
+      </c>
+      <c r="M47" s="12">
+        <v>4</v>
+      </c>
+      <c r="N47" s="12">
+        <v>3</v>
+      </c>
+      <c r="O47" s="12">
+        <v>2</v>
+      </c>
+      <c r="P47" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12">
+        <v>15</v>
+      </c>
+      <c r="S47" s="12">
+        <v>14</v>
+      </c>
+      <c r="T47" s="12">
+        <v>13</v>
+      </c>
+      <c r="U47" s="12">
+        <v>12</v>
+      </c>
+      <c r="V47" s="12">
+        <v>11</v>
+      </c>
+      <c r="W47" s="12">
+        <v>10</v>
+      </c>
+      <c r="X47" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB47" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD47" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE47" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33">
+      <c r="B48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16"/>
+    </row>
+    <row r="49" spans="2:33">
+      <c r="B49" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+    </row>
+    <row r="51" spans="2:33">
+      <c r="B51" s="16">
+        <f>R46+1</f>
+        <v>20</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16">
+        <f>B51+1</f>
+        <v>21</v>
+      </c>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+    </row>
+    <row r="52" spans="2:33">
+      <c r="B52" s="12">
+        <v>15</v>
+      </c>
+      <c r="C52" s="12">
+        <v>14</v>
+      </c>
+      <c r="D52" s="12">
+        <v>13</v>
+      </c>
+      <c r="E52" s="12">
+        <v>12</v>
+      </c>
+      <c r="F52" s="12">
+        <v>11</v>
+      </c>
+      <c r="G52" s="12">
+        <v>10</v>
+      </c>
+      <c r="H52" s="12">
+        <v>9</v>
+      </c>
+      <c r="I52" s="12">
+        <v>8</v>
+      </c>
+      <c r="J52" s="12">
+        <v>7</v>
+      </c>
+      <c r="K52" s="12">
+        <v>6</v>
+      </c>
+      <c r="L52" s="12">
+        <v>5</v>
+      </c>
+      <c r="M52" s="12">
+        <v>4</v>
+      </c>
+      <c r="N52" s="12">
+        <v>3</v>
+      </c>
+      <c r="O52" s="12">
+        <v>2</v>
+      </c>
+      <c r="P52" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>0</v>
+      </c>
+      <c r="R52" s="12">
+        <v>15</v>
+      </c>
+      <c r="S52" s="12">
+        <v>14</v>
+      </c>
+      <c r="T52" s="12">
+        <v>13</v>
+      </c>
+      <c r="U52" s="12">
+        <v>12</v>
+      </c>
+      <c r="V52" s="12">
+        <v>11</v>
+      </c>
+      <c r="W52" s="12">
+        <v>10</v>
+      </c>
+      <c r="X52" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA52" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB52" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD52" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE52" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:33">
+      <c r="B53" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
+    </row>
+    <row r="54" spans="2:33">
+      <c r="B54" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16"/>
+    </row>
+    <row r="56" spans="2:33">
+      <c r="B56" s="16">
+        <f>R51+1</f>
+        <v>22</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16">
+        <f>B56+1</f>
+        <v>23</v>
+      </c>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="16"/>
+    </row>
+    <row r="57" spans="2:33">
+      <c r="B57" s="12">
+        <v>15</v>
+      </c>
+      <c r="C57" s="12">
+        <v>14</v>
+      </c>
+      <c r="D57" s="12">
+        <v>13</v>
+      </c>
+      <c r="E57" s="12">
+        <v>12</v>
+      </c>
+      <c r="F57" s="12">
+        <v>11</v>
+      </c>
+      <c r="G57" s="12">
+        <v>10</v>
+      </c>
+      <c r="H57" s="12">
+        <v>9</v>
+      </c>
+      <c r="I57" s="12">
+        <v>8</v>
+      </c>
+      <c r="J57" s="12">
+        <v>7</v>
+      </c>
+      <c r="K57" s="12">
+        <v>6</v>
+      </c>
+      <c r="L57" s="12">
+        <v>5</v>
+      </c>
+      <c r="M57" s="12">
+        <v>4</v>
+      </c>
+      <c r="N57" s="12">
+        <v>3</v>
+      </c>
+      <c r="O57" s="12">
+        <v>2</v>
+      </c>
+      <c r="P57" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>0</v>
+      </c>
+      <c r="R57" s="12">
+        <v>15</v>
+      </c>
+      <c r="S57" s="12">
+        <v>14</v>
+      </c>
+      <c r="T57" s="12">
+        <v>13</v>
+      </c>
+      <c r="U57" s="12">
+        <v>12</v>
+      </c>
+      <c r="V57" s="12">
+        <v>11</v>
+      </c>
+      <c r="W57" s="12">
+        <v>10</v>
+      </c>
+      <c r="X57" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y57" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA57" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB57" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC57" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD57" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE57" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:33">
+      <c r="B58" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
+      <c r="AB58" s="16"/>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
+      <c r="AG58" s="16"/>
+    </row>
+    <row r="59" spans="2:33">
+      <c r="B59" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="16"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="16"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="16"/>
+      <c r="AF59" s="16"/>
+      <c r="AG59" s="16"/>
+    </row>
+    <row r="61" spans="2:33">
+      <c r="B61" s="16">
+        <f>R56+1</f>
+        <v>24</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16">
+        <f>B61+1</f>
+        <v>25</v>
+      </c>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="16"/>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="16"/>
+    </row>
+    <row r="62" spans="2:33">
+      <c r="B62" s="12">
+        <v>15</v>
+      </c>
+      <c r="C62" s="12">
+        <v>14</v>
+      </c>
+      <c r="D62" s="12">
+        <v>13</v>
+      </c>
+      <c r="E62" s="12">
+        <v>12</v>
+      </c>
+      <c r="F62" s="12">
+        <v>11</v>
+      </c>
+      <c r="G62" s="12">
+        <v>10</v>
+      </c>
+      <c r="H62" s="12">
+        <v>9</v>
+      </c>
+      <c r="I62" s="12">
+        <v>8</v>
+      </c>
+      <c r="J62" s="12">
+        <v>7</v>
+      </c>
+      <c r="K62" s="12">
+        <v>6</v>
+      </c>
+      <c r="L62" s="12">
+        <v>5</v>
+      </c>
+      <c r="M62" s="12">
+        <v>4</v>
+      </c>
+      <c r="N62" s="12">
+        <v>3</v>
+      </c>
+      <c r="O62" s="12">
+        <v>2</v>
+      </c>
+      <c r="P62" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>0</v>
+      </c>
+      <c r="R62" s="12">
+        <v>15</v>
+      </c>
+      <c r="S62" s="12">
+        <v>14</v>
+      </c>
+      <c r="T62" s="12">
+        <v>13</v>
+      </c>
+      <c r="U62" s="12">
+        <v>12</v>
+      </c>
+      <c r="V62" s="12">
+        <v>11</v>
+      </c>
+      <c r="W62" s="12">
+        <v>10</v>
+      </c>
+      <c r="X62" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y62" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA62" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB62" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC62" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE62" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF62" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:33">
+      <c r="B63" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="16"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+    </row>
+    <row r="64" spans="2:33">
+      <c r="B64" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+    </row>
+    <row r="66" spans="2:33">
+      <c r="B66" s="16">
+        <f>R61+1</f>
+        <v>26</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16">
+        <f>B66+1</f>
+        <v>27</v>
+      </c>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16"/>
+      <c r="AD66" s="16"/>
+      <c r="AE66" s="16"/>
+      <c r="AF66" s="16"/>
+      <c r="AG66" s="16"/>
+    </row>
+    <row r="67" spans="2:33">
+      <c r="B67" s="12">
+        <v>15</v>
+      </c>
+      <c r="C67" s="12">
+        <v>14</v>
+      </c>
+      <c r="D67" s="12">
+        <v>13</v>
+      </c>
+      <c r="E67" s="12">
+        <v>12</v>
+      </c>
+      <c r="F67" s="12">
+        <v>11</v>
+      </c>
+      <c r="G67" s="12">
+        <v>10</v>
+      </c>
+      <c r="H67" s="12">
+        <v>9</v>
+      </c>
+      <c r="I67" s="12">
+        <v>8</v>
+      </c>
+      <c r="J67" s="12">
+        <v>7</v>
+      </c>
+      <c r="K67" s="12">
+        <v>6</v>
+      </c>
+      <c r="L67" s="12">
+        <v>5</v>
+      </c>
+      <c r="M67" s="12">
+        <v>4</v>
+      </c>
+      <c r="N67" s="12">
+        <v>3</v>
+      </c>
+      <c r="O67" s="12">
+        <v>2</v>
+      </c>
+      <c r="P67" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>0</v>
+      </c>
+      <c r="R67" s="12">
+        <v>15</v>
+      </c>
+      <c r="S67" s="12">
+        <v>14</v>
+      </c>
+      <c r="T67" s="12">
+        <v>13</v>
+      </c>
+      <c r="U67" s="12">
+        <v>12</v>
+      </c>
+      <c r="V67" s="12">
+        <v>11</v>
+      </c>
+      <c r="W67" s="12">
+        <v>10</v>
+      </c>
+      <c r="X67" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y67" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z67" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA67" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB67" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC67" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD67" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE67" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF67" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:33">
+      <c r="B68" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
+      <c r="AD68" s="16"/>
+      <c r="AE68" s="16"/>
+      <c r="AF68" s="16"/>
+      <c r="AG68" s="16"/>
+    </row>
+    <row r="69" spans="2:33">
+      <c r="B69" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16"/>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="16"/>
+      <c r="AE69" s="16"/>
+      <c r="AF69" s="16"/>
+      <c r="AG69" s="16"/>
+    </row>
+    <row r="71" spans="2:33">
+      <c r="B71" s="16">
+        <f>R66+1</f>
+        <v>28</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16">
+        <f>B71+1</f>
+        <v>29</v>
+      </c>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="16"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="16"/>
+    </row>
+    <row r="72" spans="2:33">
+      <c r="B72" s="12">
+        <v>15</v>
+      </c>
+      <c r="C72" s="12">
+        <v>14</v>
+      </c>
+      <c r="D72" s="12">
+        <v>13</v>
+      </c>
+      <c r="E72" s="12">
+        <v>12</v>
+      </c>
+      <c r="F72" s="12">
+        <v>11</v>
+      </c>
+      <c r="G72" s="12">
+        <v>10</v>
+      </c>
+      <c r="H72" s="12">
+        <v>9</v>
+      </c>
+      <c r="I72" s="12">
+        <v>8</v>
+      </c>
+      <c r="J72" s="12">
+        <v>7</v>
+      </c>
+      <c r="K72" s="12">
+        <v>6</v>
+      </c>
+      <c r="L72" s="12">
+        <v>5</v>
+      </c>
+      <c r="M72" s="12">
+        <v>4</v>
+      </c>
+      <c r="N72" s="12">
+        <v>3</v>
+      </c>
+      <c r="O72" s="12">
+        <v>2</v>
+      </c>
+      <c r="P72" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="12">
+        <v>0</v>
+      </c>
+      <c r="R72" s="12">
+        <v>15</v>
+      </c>
+      <c r="S72" s="12">
+        <v>14</v>
+      </c>
+      <c r="T72" s="12">
+        <v>13</v>
+      </c>
+      <c r="U72" s="12">
+        <v>12</v>
+      </c>
+      <c r="V72" s="12">
+        <v>11</v>
+      </c>
+      <c r="W72" s="12">
+        <v>10</v>
+      </c>
+      <c r="X72" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y72" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z72" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA72" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB72" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD72" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE72" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF72" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33">
+      <c r="B73" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16"/>
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="16"/>
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="16"/>
+    </row>
+    <row r="74" spans="2:33">
+      <c r="B74" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
+      <c r="AE74" s="16"/>
+      <c r="AF74" s="16"/>
+      <c r="AG74" s="16"/>
+    </row>
+    <row r="76" spans="2:33">
+      <c r="B76" s="16">
+        <f>R71+1</f>
+        <v>30</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16">
+        <f>B76+1</f>
+        <v>31</v>
+      </c>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16"/>
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="16"/>
+      <c r="AF76" s="16"/>
+      <c r="AG76" s="16"/>
+    </row>
+    <row r="77" spans="2:33">
+      <c r="B77" s="12">
+        <v>15</v>
+      </c>
+      <c r="C77" s="12">
+        <v>14</v>
+      </c>
+      <c r="D77" s="12">
+        <v>13</v>
+      </c>
+      <c r="E77" s="12">
+        <v>12</v>
+      </c>
+      <c r="F77" s="12">
+        <v>11</v>
+      </c>
+      <c r="G77" s="12">
+        <v>10</v>
+      </c>
+      <c r="H77" s="12">
+        <v>9</v>
+      </c>
+      <c r="I77" s="12">
+        <v>8</v>
+      </c>
+      <c r="J77" s="12">
+        <v>7</v>
+      </c>
+      <c r="K77" s="12">
+        <v>6</v>
+      </c>
+      <c r="L77" s="12">
+        <v>5</v>
+      </c>
+      <c r="M77" s="12">
+        <v>4</v>
+      </c>
+      <c r="N77" s="12">
+        <v>3</v>
+      </c>
+      <c r="O77" s="12">
+        <v>2</v>
+      </c>
+      <c r="P77" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="12">
+        <v>0</v>
+      </c>
+      <c r="R77" s="12">
+        <v>15</v>
+      </c>
+      <c r="S77" s="12">
+        <v>14</v>
+      </c>
+      <c r="T77" s="12">
+        <v>13</v>
+      </c>
+      <c r="U77" s="12">
+        <v>12</v>
+      </c>
+      <c r="V77" s="12">
+        <v>11</v>
+      </c>
+      <c r="W77" s="12">
+        <v>10</v>
+      </c>
+      <c r="X77" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y77" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z77" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA77" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB77" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC77" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD77" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE77" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF77" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:33">
+      <c r="B78" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
+      <c r="W78" s="16"/>
+      <c r="X78" s="16"/>
+      <c r="Y78" s="16"/>
+      <c r="Z78" s="16"/>
+      <c r="AA78" s="16"/>
+      <c r="AB78" s="16"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="16"/>
+      <c r="AE78" s="16"/>
+      <c r="AF78" s="16"/>
+      <c r="AG78" s="16"/>
+    </row>
+    <row r="79" spans="2:33">
+      <c r="B79" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
+      <c r="X79" s="16"/>
+      <c r="Y79" s="16"/>
+      <c r="Z79" s="16"/>
+      <c r="AA79" s="16"/>
+      <c r="AB79" s="16"/>
+      <c r="AC79" s="16"/>
+      <c r="AD79" s="16"/>
+      <c r="AE79" s="16"/>
+      <c r="AF79" s="16"/>
+      <c r="AG79" s="16"/>
+    </row>
+    <row r="81" spans="2:33">
+      <c r="B81" s="16">
+        <f>R76+1</f>
+        <v>32</v>
+      </c>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16">
+        <f>B81+1</f>
+        <v>33</v>
+      </c>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="16"/>
+      <c r="AC81" s="16"/>
+      <c r="AD81" s="16"/>
+      <c r="AE81" s="16"/>
+      <c r="AF81" s="16"/>
+      <c r="AG81" s="16"/>
+    </row>
+    <row r="82" spans="2:33">
+      <c r="B82" s="12">
+        <v>15</v>
+      </c>
+      <c r="C82" s="12">
+        <v>14</v>
+      </c>
+      <c r="D82" s="12">
+        <v>13</v>
+      </c>
+      <c r="E82" s="12">
+        <v>12</v>
+      </c>
+      <c r="F82" s="12">
+        <v>11</v>
+      </c>
+      <c r="G82" s="12">
+        <v>10</v>
+      </c>
+      <c r="H82" s="12">
+        <v>9</v>
+      </c>
+      <c r="I82" s="12">
+        <v>8</v>
+      </c>
+      <c r="J82" s="12">
+        <v>7</v>
+      </c>
+      <c r="K82" s="12">
+        <v>6</v>
+      </c>
+      <c r="L82" s="12">
+        <v>5</v>
+      </c>
+      <c r="M82" s="12">
+        <v>4</v>
+      </c>
+      <c r="N82" s="12">
+        <v>3</v>
+      </c>
+      <c r="O82" s="12">
+        <v>2</v>
+      </c>
+      <c r="P82" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="12">
+        <v>0</v>
+      </c>
+      <c r="R82" s="12">
+        <v>15</v>
+      </c>
+      <c r="S82" s="12">
+        <v>14</v>
+      </c>
+      <c r="T82" s="12">
+        <v>13</v>
+      </c>
+      <c r="U82" s="12">
+        <v>12</v>
+      </c>
+      <c r="V82" s="12">
+        <v>11</v>
+      </c>
+      <c r="W82" s="12">
+        <v>10</v>
+      </c>
+      <c r="X82" s="12">
+        <v>9</v>
+      </c>
+      <c r="Y82" s="12">
+        <v>8</v>
+      </c>
+      <c r="Z82" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA82" s="12">
+        <v>6</v>
+      </c>
+      <c r="AB82" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC82" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD82" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE82" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF82" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:33">
+      <c r="B83" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="16"/>
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16"/>
+      <c r="Z83" s="16"/>
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16"/>
+      <c r="AC83" s="16"/>
+      <c r="AD83" s="16"/>
+      <c r="AE83" s="16"/>
+      <c r="AF83" s="16"/>
+      <c r="AG83" s="16"/>
+    </row>
+    <row r="84" spans="2:33">
+      <c r="B84" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+      <c r="W84" s="16"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" s="16"/>
+      <c r="Z84" s="16"/>
+      <c r="AA84" s="16"/>
+      <c r="AB84" s="16"/>
+      <c r="AC84" s="16"/>
+      <c r="AD84" s="16"/>
+      <c r="AE84" s="16"/>
+      <c r="AF84" s="16"/>
+      <c r="AG84" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/pico-synth-sound/control_stream_format.xlsx
+++ b/pico-synth-sound/control_stream_format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6113d96ddfeabfd/22_Development/34_pico_synth/pico-synth-sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="823" documentId="11_AD4D066CA252ABDACC10482671D4FCC273EEDF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA9DCEFC-9CE7-454F-B1C3-4A1515A22423}"/>
+  <xr:revisionPtr revIDLastSave="826" documentId="11_AD4D066CA252ABDACC10482671D4FCC273EEDF51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EEAFA67-C2E8-45F8-A956-2F0147D7C5E7}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="0" windowWidth="19770" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3490,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A50C407-7AFF-4130-A105-CC636A921B6A}">
   <dimension ref="B1:AG84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="R85" sqref="R85"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="AB45" sqref="AB45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5553,11 +5553,11 @@
         <v>57</v>
       </c>
       <c r="Y44" s="16"/>
-      <c r="Z44" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="16" t="s">
+      <c r="Z44" s="16" t="s">
         <v>27</v>
+      </c>
+      <c r="AA44" s="12">
+        <v>0</v>
       </c>
       <c r="AB44" s="16" t="s">
         <v>58</v>
